--- a/Result/ARIMA/Service/CAN.xlsx
+++ b/Result/ARIMA/Service/CAN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,6 +627,36 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B19" t="n">
+        <v>64.9019974464847</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B20" t="n">
+        <v>67.00099776833487</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B21" t="n">
+        <v>67.95885329935381</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -671,72 +701,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>64.57215912019076</v>
+        <v>67.95885329935381</v>
       </c>
       <c r="C2" t="n">
-        <v>62.35497596641335</v>
+        <v>65.4582010453274</v>
       </c>
       <c r="D2" t="n">
-        <v>66.78934227396817</v>
+        <v>70.45950555338021</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>64.19986826281358</v>
+        <v>67.95885329935381</v>
       </c>
       <c r="C3" t="n">
-        <v>61.58478734875439</v>
+        <v>64.42239696696107</v>
       </c>
       <c r="D3" t="n">
-        <v>66.81494917687277</v>
+        <v>71.49530963174654</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>63.96703668687397</v>
+        <v>67.95885329935381</v>
       </c>
       <c r="C4" t="n">
-        <v>61.21191625778114</v>
+        <v>63.62759654336784</v>
       </c>
       <c r="D4" t="n">
-        <v>66.72215711596679</v>
+        <v>72.29011005533977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>63.82142327284484</v>
+        <v>67.95885329935381</v>
       </c>
       <c r="C5" t="n">
-        <v>61.01342884532495</v>
+        <v>62.95754879136518</v>
       </c>
       <c r="D5" t="n">
-        <v>66.62941770036474</v>
+        <v>72.96015780734243</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>63.73035630196836</v>
+        <v>67.95885329935381</v>
       </c>
       <c r="C6" t="n">
-        <v>60.90195026024342</v>
+        <v>62.36722487133923</v>
       </c>
       <c r="D6" t="n">
-        <v>66.55876234369329</v>
+        <v>73.55048172736838</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,6 +1029,36 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B24" t="n">
+        <v>67.53994494930434</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="n">
+        <v>67.85737585467527</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B26" t="n">
+        <v>68.17480676004618</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1046,13 +1106,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>66.38477454578614</v>
+        <v>68.17480676004618</v>
       </c>
       <c r="C2" t="n">
-        <v>64.09531853807233</v>
+        <v>65.89904912850537</v>
       </c>
       <c r="D2" t="n">
-        <v>68.67423055349995</v>
+        <v>70.45056439158699</v>
       </c>
     </row>
     <row r="3">
@@ -1060,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>65.99778594685986</v>
+        <v>68.17480676004618</v>
       </c>
       <c r="C3" t="n">
-        <v>63.05950468868447</v>
+        <v>64.95639945287179</v>
       </c>
       <c r="D3" t="n">
-        <v>68.93606720503526</v>
+        <v>71.39321406722057</v>
       </c>
     </row>
     <row r="4">
@@ -1074,13 +1134,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>65.68648057457732</v>
+        <v>68.17480676004618</v>
       </c>
       <c r="C4" t="n">
-        <v>62.39582483656322</v>
+        <v>64.23307891654522</v>
       </c>
       <c r="D4" t="n">
-        <v>68.97713631259141</v>
+        <v>72.11653460354714</v>
       </c>
     </row>
     <row r="5">
@@ -1088,13 +1148,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>65.43605708644135</v>
+        <v>68.17480676004618</v>
       </c>
       <c r="C5" t="n">
-        <v>61.93623353941162</v>
+        <v>63.62329149701696</v>
       </c>
       <c r="D5" t="n">
-        <v>68.93588063347109</v>
+        <v>72.7263220230754</v>
       </c>
     </row>
     <row r="6">
@@ -1102,13 +1162,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>65.23460883339524</v>
+        <v>68.17480676004618</v>
       </c>
       <c r="C6" t="n">
-        <v>61.60585081532076</v>
+        <v>63.08605799566951</v>
       </c>
       <c r="D6" t="n">
-        <v>68.86336685146973</v>
+        <v>73.26355552442286</v>
       </c>
     </row>
   </sheetData>

--- a/Result/ARIMA/Service/CAN.xlsx
+++ b/Result/ARIMA/Service/CAN.xlsx
@@ -463,7 +463,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>62.8229287844789</v>
+        <v>0.2703118165723636</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>63.58332828303771</v>
+        <v>63.09324060105126</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>62.57092597902406</v>
+        <v>63.85364009961007</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>61.30066732184333</v>
+        <v>62.84123779559643</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>62.54146880610904</v>
+        <v>61.57097913841569</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>63.01576543934884</v>
+        <v>62.8117806226814</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>62.92361298179227</v>
+        <v>63.28607725592121</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>62.40435898434108</v>
+        <v>63.19392479836463</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>62.03346574533985</v>
+        <v>62.67467080091345</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>62.72319310638832</v>
+        <v>62.30377756191222</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>63.09642128215205</v>
+        <v>62.99350492296069</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>62.73445420750253</v>
+        <v>63.36673309872442</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>66.86904248237485</v>
+        <v>63.0047660240749</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>65.73341912528225</v>
+        <v>67.13935429894721</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>64.79820615164174</v>
+        <v>66.00373094185461</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>65.16324112510638</v>
+        <v>65.0685179682141</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>65.16744127608951</v>
+        <v>65.43355294167874</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>64.9019974464847</v>
+        <v>65.43775309266186</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>67.00099776833487</v>
+        <v>65.17230926305706</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>67.95885329935381</v>
+        <v>67.27130958490723</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -704,13 +704,13 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>67.95885329935381</v>
+        <v>68.22916511592616</v>
       </c>
       <c r="C2" t="n">
-        <v>65.4582010453274</v>
+        <v>65.78527118350084</v>
       </c>
       <c r="D2" t="n">
-        <v>70.45950555338021</v>
+        <v>70.67305904835149</v>
       </c>
     </row>
     <row r="3">
@@ -718,13 +718,13 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>67.95885329935381</v>
+        <v>68.49947693249852</v>
       </c>
       <c r="C3" t="n">
-        <v>64.42239696696107</v>
+        <v>65.04328898826131</v>
       </c>
       <c r="D3" t="n">
-        <v>71.49530963174654</v>
+        <v>71.95566487673574</v>
       </c>
     </row>
     <row r="4">
@@ -732,13 +732,13 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>67.95885329935381</v>
+        <v>68.76978874907088</v>
       </c>
       <c r="C4" t="n">
-        <v>63.62759654336784</v>
+        <v>64.53684028980092</v>
       </c>
       <c r="D4" t="n">
-        <v>72.29011005533977</v>
+        <v>73.00273720834085</v>
       </c>
     </row>
     <row r="5">
@@ -746,13 +746,13 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>67.95885329935381</v>
+        <v>69.04010056564324</v>
       </c>
       <c r="C5" t="n">
-        <v>62.95754879136518</v>
+        <v>64.15231270079259</v>
       </c>
       <c r="D5" t="n">
-        <v>72.96015780734243</v>
+        <v>73.92788843049389</v>
       </c>
     </row>
     <row r="6">
@@ -760,13 +760,13 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>67.95885329935381</v>
+        <v>69.3104123822156</v>
       </c>
       <c r="C6" t="n">
-        <v>62.36722487133923</v>
+        <v>63.8456994195133</v>
       </c>
       <c r="D6" t="n">
-        <v>73.55048172736838</v>
+        <v>74.77512534491791</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +815,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>62.8229287844789</v>
+        <v>0.2229949156486369</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -825,7 +825,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>63.58332828303771</v>
+        <v>63.04592370012753</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -835,7 +835,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>62.57092597902406</v>
+        <v>63.80632319868634</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -845,7 +845,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>61.30066732184333</v>
+        <v>62.79392089467269</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>62.54146880610904</v>
+        <v>61.52366223749196</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -865,7 +865,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>63.01576543934884</v>
+        <v>62.76446372175767</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -875,7 +875,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>62.92361298179227</v>
+        <v>63.23876035499747</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -885,7 +885,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>62.40435898434108</v>
+        <v>63.1466078974409</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -895,7 +895,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>62.03346574533985</v>
+        <v>62.62735389998971</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -905,7 +905,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>62.72319310638832</v>
+        <v>62.25646066098849</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -915,7 +915,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>63.09642128215205</v>
+        <v>62.94618802203696</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -925,7 +925,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>62.73445420750253</v>
+        <v>63.31941619780068</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -935,7 +935,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>66.86904248237485</v>
+        <v>62.95744912315116</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -945,7 +945,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>65.73341912528225</v>
+        <v>67.09203739802349</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -955,7 +955,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>64.79820615164174</v>
+        <v>65.95641404093089</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -965,7 +965,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>65.16324112510638</v>
+        <v>65.02120106729038</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -975,7 +975,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>65.16744127608951</v>
+        <v>65.38623604075502</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>64.9019974464847</v>
+        <v>65.39043619173815</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>67.00099776833487</v>
+        <v>65.12499236213334</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>67.95885329935381</v>
+        <v>67.22399268398351</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>2017</v>
       </c>
       <c r="B22" t="n">
-        <v>67.11667206224678</v>
+        <v>68.18184821500245</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>2018</v>
       </c>
       <c r="B23" t="n">
-        <v>66.86584615274512</v>
+        <v>67.33966697789542</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>2019</v>
       </c>
       <c r="B24" t="n">
-        <v>67.53994494930434</v>
+        <v>67.08884106839376</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2020</v>
       </c>
       <c r="B25" t="n">
-        <v>67.85737585467527</v>
+        <v>67.76293986495298</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>2021</v>
       </c>
       <c r="B26" t="n">
-        <v>68.17480676004618</v>
+        <v>68.08037077032391</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1106,13 +1106,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>68.17480676004618</v>
+        <v>68.39780167569482</v>
       </c>
       <c r="C2" t="n">
-        <v>65.89904912850537</v>
+        <v>66.16439685499222</v>
       </c>
       <c r="D2" t="n">
-        <v>70.45056439158699</v>
+        <v>70.63120649639743</v>
       </c>
     </row>
     <row r="3">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>68.17480676004618</v>
+        <v>68.62079659134346</v>
       </c>
       <c r="C3" t="n">
-        <v>64.95639945287179</v>
+        <v>65.4622852036364</v>
       </c>
       <c r="D3" t="n">
-        <v>71.39321406722057</v>
+        <v>71.77930797905053</v>
       </c>
     </row>
     <row r="4">
@@ -1134,13 +1134,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>68.17480676004618</v>
+        <v>68.8437915069921</v>
       </c>
       <c r="C4" t="n">
-        <v>64.23307891654522</v>
+        <v>64.97542088366595</v>
       </c>
       <c r="D4" t="n">
-        <v>72.11653460354714</v>
+        <v>72.71216213031826</v>
       </c>
     </row>
     <row r="5">
@@ -1148,13 +1148,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>68.17480676004618</v>
+        <v>69.06678642264075</v>
       </c>
       <c r="C5" t="n">
-        <v>63.62329149701696</v>
+        <v>64.59997678123555</v>
       </c>
       <c r="D5" t="n">
-        <v>72.7263220230754</v>
+        <v>73.53359606404594</v>
       </c>
     </row>
     <row r="6">
@@ -1162,13 +1162,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>68.17480676004618</v>
+        <v>69.28978133828939</v>
       </c>
       <c r="C6" t="n">
-        <v>63.08605799566951</v>
+        <v>64.29573633792265</v>
       </c>
       <c r="D6" t="n">
-        <v>73.26355552442286</v>
+        <v>74.28382633865613</v>
       </c>
     </row>
   </sheetData>
